--- a/report/excelReport/testReport.xlsx
+++ b/report/excelReport/testReport.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/report/excelReport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test\report\excelReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25592A90-C2BD-3F4B-B573-13EE6D829A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CEC0B-F809-48DD-8102-FD556DB22AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="3320" windowWidth="27640" windowHeight="15880" xr2:uid="{F00CCBE7-B9C8-184A-AE2C-A3E5A6735213}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F00CCBE7-B9C8-184A-AE2C-A3E5A6735213}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="reportModle" sheetId="1" r:id="rId1"/>
+    <sheet name="testReport" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>业务编号</t>
   </si>
@@ -76,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +90,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -113,14 +120,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +146,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,18 +445,18 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="7.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,19 +470,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -486,21 +496,97 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FF29C7-5DDA-449D-8083-2B0BE2FA2376}">
+  <dimension ref="A1:Z1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:Z1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/report/excelReport/testReport.xlsx
+++ b/report/excelReport/testReport.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test\report\excelReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\report\excelReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CEC0B-F809-48DD-8102-FD556DB22AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B457EA-9CDF-4A57-AA14-5B7D2C60760E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F00CCBE7-B9C8-184A-AE2C-A3E5A6735213}"/>
+    <workbookView xWindow="34320" yWindow="3615" windowWidth="15780" windowHeight="11490" activeTab="1" xr2:uid="{F00CCBE7-B9C8-184A-AE2C-A3E5A6735213}"/>
   </bookViews>
   <sheets>
-    <sheet name="reportModle" sheetId="1" r:id="rId1"/>
-    <sheet name="testReport" sheetId="2" r:id="rId2"/>
+    <sheet name="testReport" sheetId="2" r:id="rId1"/>
+    <sheet name="reportModle" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -441,6 +441,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FF29C7-5DDA-449D-8083-2B0BE2FA2376}">
+  <dimension ref="A1:Z1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B391AD56-9EBD-6646-819F-96A2074779CA}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
@@ -513,80 +589,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FF29C7-5DDA-449D-8083-2B0BE2FA2376}">
-  <dimension ref="A1:Z1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:Z1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="6" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="16.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/report/excelReport/testReport.xlsx
+++ b/report/excelReport/testReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhy\haoshenghuo\autoproject\hopsapi_test1\report\excelReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhiyong/PycharmProjects/hopsapi_test1/report/excelReport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B457EA-9CDF-4A57-AA14-5B7D2C60760E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235EF252-FF95-EA45-9CA1-2260389B6003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34320" yWindow="3615" windowWidth="15780" windowHeight="11490" activeTab="1" xr2:uid="{F00CCBE7-B9C8-184A-AE2C-A3E5A6735213}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{F00CCBE7-B9C8-184A-AE2C-A3E5A6735213}"/>
   </bookViews>
   <sheets>
     <sheet name="testReport" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>业务编号</t>
   </si>
@@ -90,6 +90,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -130,7 +132,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,21 +444,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FF29C7-5DDA-449D-8083-2B0BE2FA2376}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,18 +485,10 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -505,10 +498,6 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -520,19 +509,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B391AD56-9EBD-6646-819F-96A2074779CA}">
   <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
